--- a/source_tables/schedule.xlsx
+++ b/source_tables/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.izmailov\PycharmProjects\test_pyQt5\source_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.izmailov\PycharmProjects\FitForService\source_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E120EEB-8435-4E41-A74E-E1EFB49588A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DDDA17-37D2-4F90-9DD2-7FEEA6DC563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{DDC1A028-116F-49F4-AF27-6C967351C3EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{DDC1A028-116F-49F4-AF27-6C967351C3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>steel type</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>XXS</t>
+  </si>
+  <si>
+    <t>user defined</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,15 +137,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E36136C-C554-4851-AE6E-EED889BA8177}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -487,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -495,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -503,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -511,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -519,116 +536,132 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
